--- a/global_data/day_data/603203.xlsx
+++ b/global_data/day_data/603203.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60119,6 +60121,64 @@
         <v>0.004446667653849988</v>
       </c>
     </row>
+    <row r="2060" spans="1:9">
+      <c r="A2060" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2060">
+        <v>22.77</v>
+      </c>
+      <c r="C2060">
+        <v>23.58</v>
+      </c>
+      <c r="D2060">
+        <v>22.67</v>
+      </c>
+      <c r="E2060">
+        <v>23.45</v>
+      </c>
+      <c r="F2060">
+        <v>3025650</v>
+      </c>
+      <c r="G2060">
+        <v>70321076</v>
+      </c>
+      <c r="H2060">
+        <v>249153318</v>
+      </c>
+      <c r="I2060">
+        <v>0.01214372750195524</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:9">
+      <c r="A2061" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2061">
+        <v>23.41</v>
+      </c>
+      <c r="C2061">
+        <v>23.78</v>
+      </c>
+      <c r="D2061">
+        <v>23.36</v>
+      </c>
+      <c r="E2061">
+        <v>23.69</v>
+      </c>
+      <c r="F2061">
+        <v>1827500</v>
+      </c>
+      <c r="G2061">
+        <v>43133717</v>
+      </c>
+      <c r="H2061">
+        <v>249153318</v>
+      </c>
+      <c r="I2061">
+        <v>0.007334841111768778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
